--- a/dataLogin.xlsx
+++ b/dataLogin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Katalon Studio\Day-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Katalon Studio\Training Automation Katalon MII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CFAD8E-2D23-4380-A7E5-94E7A223B828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3DF79-CF93-4BC4-83B5-A00ABF1A4A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34C44A4C-65E6-419F-BF61-091CDD766CD3}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{58AF50E6-4EF6-4E2E-8A11-58B46830F7BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>hUKwJTbofgPU9eVlw/CnDQ==</t>
-  </si>
-  <si>
-    <t>Admin123</t>
-  </si>
-  <si>
-    <t>Admin124</t>
   </si>
 </sst>
 </file>
@@ -104,9 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAEC19-EF44-41E6-B374-0C68F5738C14}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8423794-E33C-4F6A-84DE-6D74A386B4EF}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -449,22 +437,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
